--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,46 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\web-app\BCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A6F545C-419E-46C7-8766-353A6550FF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46455" yWindow="720" windowWidth="18720" windowHeight="12090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="25875" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Texas Notes" sheetId="15" r:id="rId2"/>
-    <sheet name="AEO Table 73" sheetId="14" r:id="rId3"/>
-    <sheet name="GREET1 Fuel_Specs" sheetId="9" r:id="rId4"/>
-    <sheet name="BCF-BpLFOU" sheetId="11" r:id="rId5"/>
-    <sheet name="BCF-BpSFOU" sheetId="12" r:id="rId6"/>
-    <sheet name="BCF-VFEUCF" sheetId="10" r:id="rId7"/>
-    <sheet name="BCF-BpEIEOU" sheetId="13" r:id="rId8"/>
+    <sheet name="AEO Table 73" sheetId="14" r:id="rId2"/>
+    <sheet name="GREET1 Fuel_Specs" sheetId="9" r:id="rId3"/>
+    <sheet name="BCF-BpLFOU" sheetId="11" r:id="rId4"/>
+    <sheet name="BCF-BpSFOU" sheetId="12" r:id="rId5"/>
+    <sheet name="BCF-VFEUCF" sheetId="10" r:id="rId6"/>
+    <sheet name="BCF-BpEIEOU" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael Wang</author>
     <author>ywu</author>
@@ -49,7 +37,7 @@
     <author>A Elgowainy</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="G29" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="A43" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A63" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="A63" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="B65" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="A66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="B66" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="D66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="F66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="G66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="I66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="B67" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="D67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="F67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="G67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="I67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="B68" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="D68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
+    <comment ref="F68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
+    <comment ref="G68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+    <comment ref="I68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -507,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+    <comment ref="B69" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+    <comment ref="D69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -544,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
+    <comment ref="F69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
+    <comment ref="G69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
+    <comment ref="I69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000020000000}">
+    <comment ref="B70" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000021000000}">
+    <comment ref="D70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -620,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000022000000}">
+    <comment ref="F70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000023000000}">
+    <comment ref="G70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000024000000}">
+    <comment ref="I70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -659,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000025000000}">
+    <comment ref="B71" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000026000000}">
+    <comment ref="D71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -696,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000027000000}">
+    <comment ref="F71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -710,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000028000000}">
+    <comment ref="G71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -723,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000029000000}">
+    <comment ref="I71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -736,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002A000000}">
+    <comment ref="B72" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002B000000}">
+    <comment ref="D72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002C000000}">
+    <comment ref="F72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -786,7 +774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002D000000}">
+    <comment ref="G72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002E000000}">
+    <comment ref="I72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -812,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002F000000}">
+    <comment ref="B73" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -836,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000030000000}">
+    <comment ref="B74" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -860,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000031000000}">
+    <comment ref="B76" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -884,7 +872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000032000000}">
+    <comment ref="B77" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -908,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000033000000}">
+    <comment ref="B78" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -932,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000034000000}">
+    <comment ref="B79" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -956,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000035000000}">
+    <comment ref="B80" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -980,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000036000000}">
+    <comment ref="B81" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1004,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B82" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000037000000}">
+    <comment ref="B82" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1028,7 +1016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B83" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000038000000}">
+    <comment ref="B83" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000039000000}">
+    <comment ref="B84" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003A000000}">
+    <comment ref="B85" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003B000000}">
+    <comment ref="B86" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003C000000}">
+    <comment ref="B87" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003D000000}">
+    <comment ref="B88" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003E000000}">
+    <comment ref="A90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="422">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2456,99 +2444,12 @@
   </si>
   <si>
     <t>GREET1 2019</t>
-  </si>
-  <si>
-    <t>This is basically a spreadsheet of energy conversion values to get all of the different fuels and technologies onto a btu basis</t>
-  </si>
-  <si>
-    <t>Most of the numbers are coming from the Annual Energy Outlook</t>
-  </si>
-  <si>
-    <t>Greet1 is used whenever AEO doesn't have the data (e.g., for biomass)</t>
-  </si>
-  <si>
-    <t>Wood, Wood Waste Solids, Other Biomass Solids, Agricultural Byproducts in Texas, MMBtu per short ton, averaged across all 9 power plants</t>
-  </si>
-  <si>
-    <t>Lignite coal in Texas, MMBtu per short ton, averaged across all 10 power plants</t>
-  </si>
-  <si>
-    <t>Subbituminous coal in Texas, MMBtu per short ton, averaged across all 17 power plants</t>
-  </si>
-  <si>
-    <t>Most of these fuels' energy content will not change because they are commodities (e.g., all petroleum products, all liquid and gas fuels)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">However, coal and biomass energy content can change a lot depending on the source. </t>
-  </si>
-  <si>
-    <t>So, using EIA 923 from 2017, I gathered some specific numbers for Texas power plants and averaged the reported values:</t>
-  </si>
-  <si>
-    <t>This means that, versus the AEO numbers</t>
-  </si>
-  <si>
-    <t>Texas hard coal has a bit less energy content (12% less). This seems reasonable since Texas doesn't have any Bituminous coal, so it's "hard" coal is all Subbituminous</t>
-  </si>
-  <si>
-    <t>Texas lignite has very similar energy content to US lignite.</t>
-  </si>
-  <si>
-    <t>Texas biomass has a lot less energy content than US biomass -- 8.85 mmBtu per short ton compared to 17.9 mmBtu per short ton (GREET1 Forest Residue)</t>
-  </si>
-  <si>
-    <t>From these two sources:</t>
-  </si>
-  <si>
-    <t>http://www.omafra.gov.on.ca/english/engineer/facts/11-033.htm</t>
-  </si>
-  <si>
-    <t>https://www.ovoenergy.com/guides/energy-sources/bio-fuels.html</t>
-  </si>
-  <si>
-    <t>it looks like biomass can range in energy content from</t>
-  </si>
-  <si>
-    <t>mmBtu/ton</t>
-  </si>
-  <si>
-    <t>cut grass</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>dried wood</t>
-  </si>
-  <si>
-    <t>wood pellets</t>
-  </si>
-  <si>
-    <t>corn stover</t>
-  </si>
-  <si>
-    <t>So, I think at least that using the GREE1 Forest Residue number of 17.9 seems optimistic, but the 8.85 number from EIA 923 seems pessimistic</t>
-  </si>
-  <si>
-    <t>Note that in EIA, the US average for biomass is 11.2 mmBtu/ton, which seems much more reasonable</t>
-  </si>
-  <si>
-    <t>So, maybe for Texas, we can average 8.85 with 11.2. That would assume that Texas biomass gets 8.85 btu/ton historically, but if the market grows it might import better resources</t>
-  </si>
-  <si>
-    <t>Updated Texas biomass number</t>
-  </si>
-  <si>
-    <t>Difference versus EPS default numbers</t>
-  </si>
-  <si>
-    <t>lignite coal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3567,7 +3468,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3966,7 +3867,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="47" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3997,22 +3897,22 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="48" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Body: normal cell" xfId="48"/>
+    <cellStyle name="Body: normal cell 2" xfId="57"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="61" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="43" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="52" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="45" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="43"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59"/>
+    <cellStyle name="Footnotes: all except top row" xfId="52"/>
+    <cellStyle name="Footnotes: top row" xfId="45"/>
+    <cellStyle name="Footnotes: top row 2" xfId="55"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Header: top rows" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Header: bottom row" xfId="42"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Header: top rows" xfId="51"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -4022,16 +3922,16 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 2" xfId="54"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="46" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Parent row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Parent row" xfId="46"/>
+    <cellStyle name="Parent row 2" xfId="56"/>
     <cellStyle name="Percent" xfId="62" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="49" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Table title" xfId="50" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Table title 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Section Break" xfId="44"/>
+    <cellStyle name="Section Break: parent row" xfId="49"/>
+    <cellStyle name="Table title" xfId="50"/>
+    <cellStyle name="Table title 2" xfId="60"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -4063,7 +3963,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4155,23 +4055,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4207,23 +4090,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4399,10 +4265,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4758,242 +4624,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B92BBE-3833-45F9-A37F-AEA40227DE27}">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>17.02</v>
-      </c>
-      <c r="C10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>12.82</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>8.85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C19" s="208" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="208" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C22">
-        <v>3.4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>439</v>
-      </c>
-      <c r="E22" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C23">
-        <v>12.8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>439</v>
-      </c>
-      <c r="E23" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C24">
-        <v>12.9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>439</v>
-      </c>
-      <c r="E24" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C25">
-        <v>15.5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>439</v>
-      </c>
-      <c r="E25" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C26">
-        <v>15.6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>439</v>
-      </c>
-      <c r="E26" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C30">
-        <f>AVERAGE(B12,11.2)</f>
-        <v>10.024999999999999</v>
-      </c>
-      <c r="D30" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B33">
-        <f>B10/'AEO Table 73'!C66</f>
-        <v>0.87562804575923092</v>
-      </c>
-      <c r="C33" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B34">
-        <f>B11*10^6/'GREET1 Fuel_Specs'!D69</f>
-        <v>0.98673814909054214</v>
-      </c>
-      <c r="C34" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B35">
-        <f>C30*10^6/'GREET1 Fuel_Specs'!D81</f>
-        <v>0.55986820060314968</v>
-      </c>
-      <c r="C35" t="s">
-        <v>325</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{D79C80A5-8015-45B2-8EB9-970975D4674A}"/>
-    <hyperlink ref="C20" r:id="rId2" xr:uid="{61AE1C66-5384-41B7-A5DE-8D18E355B88E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C32" sqref="C32"/>
       <selection pane="topRight" activeCell="C32" sqref="C32"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
-      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11632,44 +11271,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="209" t="s">
+      <c r="B78" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="209"/>
-      <c r="D78" s="209"/>
-      <c r="E78" s="209"/>
-      <c r="F78" s="209"/>
-      <c r="G78" s="209"/>
-      <c r="H78" s="209"/>
-      <c r="I78" s="209"/>
-      <c r="J78" s="209"/>
-      <c r="K78" s="209"/>
-      <c r="L78" s="209"/>
-      <c r="M78" s="209"/>
-      <c r="N78" s="209"/>
-      <c r="O78" s="209"/>
-      <c r="P78" s="209"/>
-      <c r="Q78" s="209"/>
-      <c r="R78" s="209"/>
-      <c r="S78" s="209"/>
-      <c r="T78" s="209"/>
-      <c r="U78" s="209"/>
-      <c r="V78" s="209"/>
-      <c r="W78" s="209"/>
-      <c r="X78" s="209"/>
-      <c r="Y78" s="209"/>
-      <c r="Z78" s="209"/>
-      <c r="AA78" s="209"/>
-      <c r="AB78" s="209"/>
-      <c r="AC78" s="209"/>
-      <c r="AD78" s="209"/>
-      <c r="AE78" s="209"/>
-      <c r="AF78" s="209"/>
-      <c r="AG78" s="209"/>
-      <c r="AH78" s="209"/>
-      <c r="AI78" s="209"/>
-      <c r="AJ78" s="209"/>
-      <c r="AK78" s="209"/>
+      <c r="C78" s="208"/>
+      <c r="D78" s="208"/>
+      <c r="E78" s="208"/>
+      <c r="F78" s="208"/>
+      <c r="G78" s="208"/>
+      <c r="H78" s="208"/>
+      <c r="I78" s="208"/>
+      <c r="J78" s="208"/>
+      <c r="K78" s="208"/>
+      <c r="L78" s="208"/>
+      <c r="M78" s="208"/>
+      <c r="N78" s="208"/>
+      <c r="O78" s="208"/>
+      <c r="P78" s="208"/>
+      <c r="Q78" s="208"/>
+      <c r="R78" s="208"/>
+      <c r="S78" s="208"/>
+      <c r="T78" s="208"/>
+      <c r="U78" s="208"/>
+      <c r="V78" s="208"/>
+      <c r="W78" s="208"/>
+      <c r="X78" s="208"/>
+      <c r="Y78" s="208"/>
+      <c r="Z78" s="208"/>
+      <c r="AA78" s="208"/>
+      <c r="AB78" s="208"/>
+      <c r="AC78" s="208"/>
+      <c r="AD78" s="208"/>
+      <c r="AE78" s="208"/>
+      <c r="AF78" s="208"/>
+      <c r="AG78" s="208"/>
+      <c r="AH78" s="208"/>
+      <c r="AI78" s="208"/>
+      <c r="AJ78" s="208"/>
+      <c r="AK78" s="208"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="8" t="s">
@@ -11715,13 +11354,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -16185,19 +15822,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
       <formula1>$D$100:$E$100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
       <formula1>"None, GWP, GTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
       <formula1>$C$93:$D$93</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
       <formula1>"AR5/GWP,AR5/GTP,AR4/GWP,AR3/GWP,AR2/GWP,AR1/GWP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16206,15 +15843,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="U13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16477,140 +16114,140 @@
         <v>323</v>
       </c>
       <c r="B3" s="5">
-        <f>'AEO Table 73'!C66*10^12*'Texas Notes'!$B$33</f>
-        <v>17019999999999.998</v>
+        <f>'AEO Table 73'!C66*10^12</f>
+        <v>19437477000000</v>
       </c>
       <c r="C3" s="5">
-        <f>'AEO Table 73'!D66*10^12*'Texas Notes'!$B$33</f>
-        <v>17255910832460.404</v>
+        <f>'AEO Table 73'!D66*10^12</f>
+        <v>19706896000000</v>
       </c>
       <c r="D3" s="5">
-        <f>'AEO Table 73'!E66*10^12*'Texas Notes'!$B$33</f>
-        <v>17151883593740.07</v>
+        <f>'AEO Table 73'!E66*10^12</f>
+        <v>19588093000000</v>
       </c>
       <c r="E3" s="5">
-        <f>'AEO Table 73'!F66*10^12*'Texas Notes'!$B$33</f>
-        <v>17229153390638.094</v>
+        <f>'AEO Table 73'!F66*10^12</f>
+        <v>19676338000000</v>
       </c>
       <c r="F3" s="5">
-        <f>'AEO Table 73'!G66*10^12*'Texas Notes'!$B$33</f>
-        <v>17156934216308.01</v>
+        <f>'AEO Table 73'!G66*10^12</f>
+        <v>19593861000000</v>
       </c>
       <c r="G3" s="5">
-        <f>'AEO Table 73'!H66*10^12*'Texas Notes'!$B$33</f>
-        <v>17305274363540.082</v>
+        <f>'AEO Table 73'!H66*10^12</f>
+        <v>19763271000000</v>
       </c>
       <c r="H3" s="5">
-        <f>'AEO Table 73'!I66*10^12*'Texas Notes'!$B$33</f>
-        <v>17402264179656.648</v>
+        <f>'AEO Table 73'!I66*10^12</f>
+        <v>19874037000000</v>
       </c>
       <c r="I3" s="5">
-        <f>'AEO Table 73'!J66*10^12*'Texas Notes'!$B$33</f>
-        <v>17366316145866.049</v>
+        <f>'AEO Table 73'!J66*10^12</f>
+        <v>19832983000000</v>
       </c>
       <c r="J3" s="5">
-        <f>'AEO Table 73'!K66*10^12*'Texas Notes'!$B$33</f>
-        <v>17384764753162.15</v>
+        <f>'AEO Table 73'!K66*10^12</f>
+        <v>19854052000000</v>
       </c>
       <c r="K3" s="5">
-        <f>'AEO Table 73'!L66*10^12*'Texas Notes'!$B$33</f>
-        <v>17380480305134.25</v>
+        <f>'AEO Table 73'!L66*10^12</f>
+        <v>19849159000000</v>
       </c>
       <c r="L3" s="5">
-        <f>'AEO Table 73'!M66*10^12*'Texas Notes'!$B$33</f>
-        <v>17373866686504.631</v>
+        <f>'AEO Table 73'!M66*10^12</f>
+        <v>19841606000000</v>
       </c>
       <c r="M3" s="5">
-        <f>'AEO Table 73'!N66*10^12*'Texas Notes'!$B$33</f>
-        <v>17371104080020.26</v>
+        <f>'AEO Table 73'!N66*10^12</f>
+        <v>19838451000000</v>
       </c>
       <c r="N3" s="5">
-        <f>'AEO Table 73'!O66*10^12*'Texas Notes'!$B$33</f>
-        <v>17321877146915.723</v>
+        <f>'AEO Table 73'!O66*10^12</f>
+        <v>19782232000000</v>
       </c>
       <c r="O3" s="5">
-        <f>'AEO Table 73'!P66*10^12*'Texas Notes'!$B$33</f>
-        <v>17294412197632.438</v>
+        <f>'AEO Table 73'!P66*10^12</f>
+        <v>19750866000000</v>
       </c>
       <c r="P3" s="5">
-        <f>'AEO Table 73'!Q66*10^12*'Texas Notes'!$B$33</f>
-        <v>17300247382929.377</v>
+        <f>'AEO Table 73'!Q66*10^12</f>
+        <v>19757530000000</v>
       </c>
       <c r="Q3" s="5">
-        <f>'AEO Table 73'!R66*10^12*'Texas Notes'!$B$33</f>
-        <v>17330557247733.334</v>
+        <f>'AEO Table 73'!R66*10^12</f>
+        <v>19792145000000</v>
       </c>
       <c r="R3" s="5">
-        <f>'AEO Table 73'!S66*10^12*'Texas Notes'!$B$33</f>
-        <v>17326560005704.443</v>
+        <f>'AEO Table 73'!S66*10^12</f>
+        <v>19787580000000</v>
       </c>
       <c r="S3" s="5">
-        <f>'AEO Table 73'!T66*10^12*'Texas Notes'!$B$33</f>
-        <v>17330518720099.32</v>
+        <f>'AEO Table 73'!T66*10^12</f>
+        <v>19792101000000</v>
       </c>
       <c r="T3" s="5">
-        <f>'AEO Table 73'!U66*10^12*'Texas Notes'!$B$33</f>
-        <v>17338634040827.416</v>
+        <f>'AEO Table 73'!U66*10^12</f>
+        <v>19801369000000</v>
       </c>
       <c r="U3" s="5">
-        <f>'AEO Table 73'!V66*10^12*'Texas Notes'!$B$33</f>
-        <v>17329162372256.439</v>
+        <f>'AEO Table 73'!V66*10^12</f>
+        <v>19790552000000</v>
       </c>
       <c r="V3" s="5">
-        <f>'AEO Table 73'!W66*10^12*'Texas Notes'!$B$33</f>
-        <v>17349492704222.877</v>
+        <f>'AEO Table 73'!W66*10^12</f>
+        <v>19813770000000</v>
       </c>
       <c r="W3" s="5">
-        <f>'AEO Table 73'!X66*10^12*'Texas Notes'!$B$33</f>
-        <v>17358285761058.391</v>
+        <f>'AEO Table 73'!X66*10^12</f>
+        <v>19823812000000</v>
       </c>
       <c r="X3" s="5">
-        <f>'AEO Table 73'!Y66*10^12*'Texas Notes'!$B$33</f>
-        <v>17354914593082.219</v>
+        <f>'AEO Table 73'!Y66*10^12</f>
+        <v>19819962000000</v>
       </c>
       <c r="Y3" s="5">
-        <f>'AEO Table 73'!Z66*10^12*'Texas Notes'!$B$33</f>
-        <v>17352840230241.814</v>
+        <f>'AEO Table 73'!Z66*10^12</f>
+        <v>19817593000000</v>
       </c>
       <c r="Z3" s="5">
-        <f>'AEO Table 73'!AA66*10^12*'Texas Notes'!$B$33</f>
-        <v>17350336809658.988</v>
+        <f>'AEO Table 73'!AA66*10^12</f>
+        <v>19814734000000</v>
       </c>
       <c r="AA3" s="5">
-        <f>'AEO Table 73'!AB66*10^12*'Texas Notes'!$B$33</f>
-        <v>17345078663244.205</v>
+        <f>'AEO Table 73'!AB66*10^12</f>
+        <v>19808729000000</v>
       </c>
       <c r="AB3" s="5">
-        <f>'AEO Table 73'!AC66*10^12*'Texas Notes'!$B$33</f>
-        <v>17352268445127.934</v>
+        <f>'AEO Table 73'!AC66*10^12</f>
+        <v>19816940000000</v>
       </c>
       <c r="AC3" s="5">
-        <f>'AEO Table 73'!AD66*10^12*'Texas Notes'!$B$33</f>
-        <v>17356838347898.752</v>
+        <f>'AEO Table 73'!AD66*10^12</f>
+        <v>19822159000000</v>
       </c>
       <c r="AD3" s="5">
-        <f>'AEO Table 73'!AE66*10^12*'Texas Notes'!$B$33</f>
-        <v>17365795147178.822</v>
+        <f>'AEO Table 73'!AE66*10^12</f>
+        <v>19832388000000</v>
       </c>
       <c r="AE3" s="5">
-        <f>'AEO Table 73'!AF66*10^12*'Texas Notes'!$B$33</f>
-        <v>17386942440111.953</v>
+        <f>'AEO Table 73'!AF66*10^12</f>
+        <v>19856539000000</v>
       </c>
       <c r="AF3" s="5">
-        <f>'AEO Table 73'!AG66*10^12*'Texas Notes'!$B$33</f>
-        <v>17408031065966.02</v>
+        <f>'AEO Table 73'!AG66*10^12</f>
+        <v>19880623000000</v>
       </c>
       <c r="AG3" s="5">
-        <f>'AEO Table 73'!AH66*10^12*'Texas Notes'!$B$33</f>
-        <v>17424334384550.01</v>
+        <f>'AEO Table 73'!AH66*10^12</f>
+        <v>19899242000000</v>
       </c>
       <c r="AH3" s="5">
-        <f>'AEO Table 73'!AI66*10^12*'Texas Notes'!$B$33</f>
-        <v>17411854058013.803</v>
+        <f>'AEO Table 73'!AI66*10^12</f>
+        <v>19884989000000</v>
       </c>
       <c r="AI3" s="5">
-        <f>'AEO Table 73'!AJ66*10^12*'Texas Notes'!$B$33</f>
-        <v>17414038749987.973</v>
+        <f>'AEO Table 73'!AJ66*10^12</f>
+        <v>19887484000000</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
@@ -17221,140 +16858,140 @@
         <v>325</v>
       </c>
       <c r="B9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="C9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="D9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="E9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="F9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="G9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="H9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="I9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="J9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="K9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="L9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="M9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="N9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="O9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="P9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="Q9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="R9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="S9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="T9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="U9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="V9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="W9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="X9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="Y9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="Z9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="AA9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="AB9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="AC9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="AD9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="AE9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="AF9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="AG9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="AH9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
       <c r="AI9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6*'Texas Notes'!$B$35</f>
-        <v>10024999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>17906000000000</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
@@ -18315,140 +17952,140 @@
         <v>330</v>
       </c>
       <c r="B17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="C17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="D17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="E17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="F17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="G17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="H17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="I17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="J17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="K17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="L17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="M17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="N17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="O17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="P17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="Q17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="R17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="S17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="T17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="U17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="V17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="W17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="X17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="Y17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="Z17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="AA17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="AB17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="AC17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="AD17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="AE17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="AF17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="AG17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="AH17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
       <c r="AI17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6*'Texas Notes'!$B$34</f>
-        <v>12819999999999.998</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>12992301971719.6</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.45">
@@ -19020,140 +18657,140 @@
         <v>367</v>
       </c>
       <c r="B22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="C22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="D22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="E22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="F22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="G22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="H22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="I22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="J22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="K22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="L22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="M22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="N22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="O22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="P22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Q22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="R22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="S22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="T22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="U22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="V22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="W22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="X22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Y22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Z22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AA22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AB22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AC22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AD22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AE22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AF22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AG22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AH22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AI22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
     </row>
   </sheetData>
@@ -19161,15 +18798,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="U10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19432,140 +19069,140 @@
         <v>323</v>
       </c>
       <c r="B3" s="5">
-        <f>'AEO Table 73'!C66*10^6*'Texas Notes'!$B$33</f>
-        <v>17020000</v>
+        <f>'AEO Table 73'!C66*10^6</f>
+        <v>19437477</v>
       </c>
       <c r="C3" s="5">
-        <f>'AEO Table 73'!D66*10^6*'Texas Notes'!$B$33</f>
-        <v>17255910.832460403</v>
+        <f>'AEO Table 73'!D66*10^6</f>
+        <v>19706896</v>
       </c>
       <c r="D3" s="5">
-        <f>'AEO Table 73'!E66*10^6*'Texas Notes'!$B$33</f>
-        <v>17151883.593740072</v>
+        <f>'AEO Table 73'!E66*10^6</f>
+        <v>19588093</v>
       </c>
       <c r="E3" s="5">
-        <f>'AEO Table 73'!F66*10^6*'Texas Notes'!$B$33</f>
-        <v>17229153.390638094</v>
+        <f>'AEO Table 73'!F66*10^6</f>
+        <v>19676338</v>
       </c>
       <c r="F3" s="5">
-        <f>'AEO Table 73'!G66*10^6*'Texas Notes'!$B$33</f>
-        <v>17156934.216308009</v>
+        <f>'AEO Table 73'!G66*10^6</f>
+        <v>19593861</v>
       </c>
       <c r="G3" s="5">
-        <f>'AEO Table 73'!H66*10^6*'Texas Notes'!$B$33</f>
-        <v>17305274.363540083</v>
+        <f>'AEO Table 73'!H66*10^6</f>
+        <v>19763271</v>
       </c>
       <c r="H3" s="5">
-        <f>'AEO Table 73'!I66*10^6*'Texas Notes'!$B$33</f>
-        <v>17402264.179656647</v>
+        <f>'AEO Table 73'!I66*10^6</f>
+        <v>19874037</v>
       </c>
       <c r="I3" s="5">
-        <f>'AEO Table 73'!J66*10^6*'Texas Notes'!$B$33</f>
-        <v>17366316.145866048</v>
+        <f>'AEO Table 73'!J66*10^6</f>
+        <v>19832983</v>
       </c>
       <c r="J3" s="5">
-        <f>'AEO Table 73'!K66*10^6*'Texas Notes'!$B$33</f>
-        <v>17384764.753162149</v>
+        <f>'AEO Table 73'!K66*10^6</f>
+        <v>19854052</v>
       </c>
       <c r="K3" s="5">
-        <f>'AEO Table 73'!L66*10^6*'Texas Notes'!$B$33</f>
-        <v>17380480.305134252</v>
+        <f>'AEO Table 73'!L66*10^6</f>
+        <v>19849159</v>
       </c>
       <c r="L3" s="5">
-        <f>'AEO Table 73'!M66*10^6*'Texas Notes'!$B$33</f>
-        <v>17373866.686504632</v>
+        <f>'AEO Table 73'!M66*10^6</f>
+        <v>19841606</v>
       </c>
       <c r="M3" s="5">
-        <f>'AEO Table 73'!N66*10^6*'Texas Notes'!$B$33</f>
-        <v>17371104.08002026</v>
+        <f>'AEO Table 73'!N66*10^6</f>
+        <v>19838451</v>
       </c>
       <c r="N3" s="5">
-        <f>'AEO Table 73'!O66*10^6*'Texas Notes'!$B$33</f>
-        <v>17321877.146915723</v>
+        <f>'AEO Table 73'!O66*10^6</f>
+        <v>19782232</v>
       </c>
       <c r="O3" s="5">
-        <f>'AEO Table 73'!P66*10^6*'Texas Notes'!$B$33</f>
-        <v>17294412.197632439</v>
+        <f>'AEO Table 73'!P66*10^6</f>
+        <v>19750866</v>
       </c>
       <c r="P3" s="5">
-        <f>'AEO Table 73'!Q66*10^6*'Texas Notes'!$B$33</f>
-        <v>17300247.382929377</v>
+        <f>'AEO Table 73'!Q66*10^6</f>
+        <v>19757530</v>
       </c>
       <c r="Q3" s="5">
-        <f>'AEO Table 73'!R66*10^6*'Texas Notes'!$B$33</f>
-        <v>17330557.247733332</v>
+        <f>'AEO Table 73'!R66*10^6</f>
+        <v>19792145</v>
       </c>
       <c r="R3" s="5">
-        <f>'AEO Table 73'!S66*10^6*'Texas Notes'!$B$33</f>
-        <v>17326560.005704444</v>
+        <f>'AEO Table 73'!S66*10^6</f>
+        <v>19787580</v>
       </c>
       <c r="S3" s="5">
-        <f>'AEO Table 73'!T66*10^6*'Texas Notes'!$B$33</f>
-        <v>17330518.720099319</v>
+        <f>'AEO Table 73'!T66*10^6</f>
+        <v>19792101</v>
       </c>
       <c r="T3" s="5">
-        <f>'AEO Table 73'!U66*10^6*'Texas Notes'!$B$33</f>
-        <v>17338634.040827416</v>
+        <f>'AEO Table 73'!U66*10^6</f>
+        <v>19801369</v>
       </c>
       <c r="U3" s="5">
-        <f>'AEO Table 73'!V66*10^6*'Texas Notes'!$B$33</f>
-        <v>17329162.372256439</v>
+        <f>'AEO Table 73'!V66*10^6</f>
+        <v>19790552</v>
       </c>
       <c r="V3" s="5">
-        <f>'AEO Table 73'!W66*10^6*'Texas Notes'!$B$33</f>
-        <v>17349492.704222877</v>
+        <f>'AEO Table 73'!W66*10^6</f>
+        <v>19813770</v>
       </c>
       <c r="W3" s="5">
-        <f>'AEO Table 73'!X66*10^6*'Texas Notes'!$B$33</f>
-        <v>17358285.76105839</v>
+        <f>'AEO Table 73'!X66*10^6</f>
+        <v>19823812</v>
       </c>
       <c r="X3" s="5">
-        <f>'AEO Table 73'!Y66*10^6*'Texas Notes'!$B$33</f>
-        <v>17354914.593082219</v>
+        <f>'AEO Table 73'!Y66*10^6</f>
+        <v>19819962</v>
       </c>
       <c r="Y3" s="5">
-        <f>'AEO Table 73'!Z66*10^6*'Texas Notes'!$B$33</f>
-        <v>17352840.230241813</v>
+        <f>'AEO Table 73'!Z66*10^6</f>
+        <v>19817593</v>
       </c>
       <c r="Z3" s="5">
-        <f>'AEO Table 73'!AA66*10^6*'Texas Notes'!$B$33</f>
-        <v>17350336.809658989</v>
+        <f>'AEO Table 73'!AA66*10^6</f>
+        <v>19814734</v>
       </c>
       <c r="AA3" s="5">
-        <f>'AEO Table 73'!AB66*10^6*'Texas Notes'!$B$33</f>
-        <v>17345078.663244203</v>
+        <f>'AEO Table 73'!AB66*10^6</f>
+        <v>19808729</v>
       </c>
       <c r="AB3" s="5">
-        <f>'AEO Table 73'!AC66*10^6*'Texas Notes'!$B$33</f>
-        <v>17352268.445127934</v>
+        <f>'AEO Table 73'!AC66*10^6</f>
+        <v>19816940</v>
       </c>
       <c r="AC3" s="5">
-        <f>'AEO Table 73'!AD66*10^6*'Texas Notes'!$B$33</f>
-        <v>17356838.347898751</v>
+        <f>'AEO Table 73'!AD66*10^6</f>
+        <v>19822159</v>
       </c>
       <c r="AD3" s="5">
-        <f>'AEO Table 73'!AE66*10^6*'Texas Notes'!$B$33</f>
-        <v>17365795.147178821</v>
+        <f>'AEO Table 73'!AE66*10^6</f>
+        <v>19832388</v>
       </c>
       <c r="AE3" s="5">
-        <f>'AEO Table 73'!AF66*10^6*'Texas Notes'!$B$33</f>
-        <v>17386942.440111954</v>
+        <f>'AEO Table 73'!AF66*10^6</f>
+        <v>19856539</v>
       </c>
       <c r="AF3" s="5">
-        <f>'AEO Table 73'!AG66*10^6*'Texas Notes'!$B$33</f>
-        <v>17408031.065966018</v>
+        <f>'AEO Table 73'!AG66*10^6</f>
+        <v>19880623</v>
       </c>
       <c r="AG3" s="5">
-        <f>'AEO Table 73'!AH66*10^6*'Texas Notes'!$B$33</f>
-        <v>17424334.384550009</v>
+        <f>'AEO Table 73'!AH66*10^6</f>
+        <v>19899242</v>
       </c>
       <c r="AH3" s="5">
-        <f>'AEO Table 73'!AI66*10^6*'Texas Notes'!$B$33</f>
-        <v>17411854.058013804</v>
+        <f>'AEO Table 73'!AI66*10^6</f>
+        <v>19884989</v>
       </c>
       <c r="AI3" s="5">
-        <f>'AEO Table 73'!AJ66*10^6*'Texas Notes'!$B$33</f>
-        <v>17414038.749987971</v>
+        <f>'AEO Table 73'!AJ66*10^6</f>
+        <v>19887484</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
@@ -20176,140 +19813,140 @@
         <v>325</v>
       </c>
       <c r="B9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="C9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="D9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="E9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="F9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="G9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="H9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="I9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="J9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="K9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="L9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="M9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="N9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="O9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="P9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="Q9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="R9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="S9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="T9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="U9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="V9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="W9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="X9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="Y9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="Z9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="AA9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="AB9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="AC9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="AD9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="AE9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="AF9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="AG9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="AH9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
       <c r="AI9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*'Texas Notes'!$B$35</f>
-        <v>10024999.999999998</v>
+        <f>'GREET1 Fuel_Specs'!$D$81</f>
+        <v>17906000</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
@@ -21270,140 +20907,140 @@
         <v>330</v>
       </c>
       <c r="B17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="C17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="D17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="E17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="F17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="G17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="H17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="I17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="J17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="K17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="L17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="M17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="N17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="O17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="P17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="Q17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="R17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="S17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="T17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="U17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="V17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="W17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="X17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="Y17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="Z17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="AA17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="AB17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="AC17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="AD17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="AE17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="AF17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="AG17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="AH17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
       <c r="AI17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*'Texas Notes'!$B$34</f>
-        <v>12820000</v>
+        <f>'GREET1 Fuel_Specs'!$D$69</f>
+        <v>12992301.9717196</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.45">
@@ -21975,140 +21612,140 @@
         <v>367</v>
       </c>
       <c r="B22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="C22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="D22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="E22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="F22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="G22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="H22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="I22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="J22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="K22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="L22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="M22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="N22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="O22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="P22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Q22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="R22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="S22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="T22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="U22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="V22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="W22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="X22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Y22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Z22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AA22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AB22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AC22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AD22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AE22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AF22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AG22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AH22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AI22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
     </row>
   </sheetData>
@@ -22116,16 +21753,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -23417,16 +23052,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
